--- a/similarities/split_global/harmonic_similarity_timestamps_341.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_341.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'A']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000'), ('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.886772', '0:00:23.088042'), ('0:00:00.444363', '0:00:11.872804')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=17.886772', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.444363']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:30.520000', '0:00:40.640000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:03.840000', '0:01:06.800000')]</t>
+          <t>('0:00:07.265318', '0:00:12.547858')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=7.265318</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['G/3', 'C', 'G/3', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:02:10.528000', '0:02:12.444000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.459070', '0:00:20.410362')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.528</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=11.45907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['C#:min', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G:min', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.100000', '0:00:16.740000')]</t>
+          <t>('0:00:37.859000', '0:00:43.283000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:45.280000', '0:02:02.260000')]</t>
+          <t>('0:00:30.731632', '0:00:37.848548')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=10.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=37.859</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=105.28']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=30.731632</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min', 'C:maj', 'F:min', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min', 'C', 'F:min', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:15.480000', '0:00:20.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:03.400000', '0:00:09.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=15.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=3.4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['G', 'C/5', 'G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:53.440000')]</t>
+          <t>('0:00:59.182426', '0:01:08.064058')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+          <t>('0:01:58.400000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:36.600000', '0:00:39')]</t>
+          <t>('0:00:29.008095', '0:00:34.615714')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.140000', '0:00:37.240000')]</t>
+          <t>('0:03:20.520000', '0:03:23.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.590000', '0:00:53.060000')]</t>
+          <t>('0:00:56.720000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:02:12.150000', '0:02:21.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=132.15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:03:07.920000', '0:03:10.220000'), ('0:00:23.180000', '0:00:30.140000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:43.640000', '0:00:46.580000'), ('0:01:37.220000', '0:01:50.760000')]</t>
+          <t>('0:00:00.465952', '0:00:08.500330')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=187.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=43.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=97.22']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:56.880000', '0:01:04.440000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.071405', '0:00:13.973174')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=3.071405']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:49.402280', '0:00:59.224321')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:55.180000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
